--- a/WT-13yr 15022108.xlsx
+++ b/WT-13yr 15022108.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/williamsi27_cardiff_ac_uk/Documents/Documents/taught_units/data_science&amp;machine_learning/DATA/Josie Waterman raw data/WT 13yr/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/williamsi27_cardiff_ac_uk/Documents/Documents/experements/IWEX02_calcium_data_analysis/DATA/Josie Waterman raw data/WT 13yr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{E2236B9F-CB89-EF43-B6C5-5426EDC916E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A70FFF6E-4DB1-4439-864B-CBAE50F95A18}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{E2236B9F-CB89-EF43-B6C5-5426EDC916E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A59B377-325D-416B-800F-4BE4B5B36BB2}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>R1 W1 Avg</t>
   </si>
@@ -192,6 +192,9 @@
   <si>
     <t>Time (sec)</t>
   </si>
+  <si>
+    <t>R17 R1</t>
+  </si>
 </sst>
 </file>
 
@@ -247,6 +250,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -571,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="BA1" sqref="BA1:CT1"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="AZ2" sqref="AZ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -726,13 +733,13 @@
         <v>47</v>
       </c>
       <c r="AX1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AY1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AZ1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.35">

--- a/WT-13yr 15022108.xlsx
+++ b/WT-13yr 15022108.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/williamsi27_cardiff_ac_uk/Documents/Documents/experements/IWEX02_calcium_data_analysis/DATA/Josie Waterman raw data/WT 13yr/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/williamsi27_cardiff_ac_uk/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{E2236B9F-CB89-EF43-B6C5-5426EDC916E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A59B377-325D-416B-800F-4BE4B5B36BB2}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{E2236B9F-CB89-EF43-B6C5-5426EDC916E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68A9C720-DF34-4F31-9DD8-191A2403DF18}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -250,10 +250,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -578,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="AZ2" sqref="AZ2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2167,164 +2163,6 @@
       </c>
       <c r="AZ11">
         <v>0.32142999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>57.4</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>22.620992000000001</v>
-      </c>
-      <c r="F12">
-        <v>73.964794999999995</v>
-      </c>
-      <c r="G12">
-        <v>0.34184900000000001</v>
-      </c>
-      <c r="H12">
-        <v>20.336072000000001</v>
-      </c>
-      <c r="I12">
-        <v>66.204600999999997</v>
-      </c>
-      <c r="J12">
-        <v>0.34117199999999998</v>
-      </c>
-      <c r="K12">
-        <v>24.944997999999998</v>
-      </c>
-      <c r="L12">
-        <v>86.884915000000007</v>
-      </c>
-      <c r="M12">
-        <v>0.32901900000000001</v>
-      </c>
-      <c r="N12">
-        <v>30.369935000000002</v>
-      </c>
-      <c r="O12">
-        <v>94.235562000000002</v>
-      </c>
-      <c r="P12">
-        <v>0.346217</v>
-      </c>
-      <c r="Q12">
-        <v>29.784634</v>
-      </c>
-      <c r="R12">
-        <v>109.25917800000001</v>
-      </c>
-      <c r="S12">
-        <v>0.322239</v>
-      </c>
-      <c r="T12">
-        <v>17.868255000000001</v>
-      </c>
-      <c r="U12">
-        <v>65.904399999999995</v>
-      </c>
-      <c r="V12">
-        <v>0.29990499999999998</v>
-      </c>
-      <c r="W12">
-        <v>15.232144</v>
-      </c>
-      <c r="X12">
-        <v>53.335234</v>
-      </c>
-      <c r="Y12">
-        <v>0.34121299999999999</v>
-      </c>
-      <c r="Z12">
-        <v>22.854538999999999</v>
-      </c>
-      <c r="AA12">
-        <v>74.176503999999994</v>
-      </c>
-      <c r="AB12">
-        <v>0.35293200000000002</v>
-      </c>
-      <c r="AC12">
-        <v>16.153265999999999</v>
-      </c>
-      <c r="AD12">
-        <v>57.021095000000003</v>
-      </c>
-      <c r="AE12">
-        <v>0.31925399999999998</v>
-      </c>
-      <c r="AF12">
-        <v>14.352029</v>
-      </c>
-      <c r="AG12">
-        <v>47.922376</v>
-      </c>
-      <c r="AH12">
-        <v>0.39201200000000003</v>
-      </c>
-      <c r="AI12">
-        <v>16.017340999999998</v>
-      </c>
-      <c r="AJ12">
-        <v>43.051527</v>
-      </c>
-      <c r="AK12">
-        <v>0.44558500000000001</v>
-      </c>
-      <c r="AL12">
-        <v>14.518518</v>
-      </c>
-      <c r="AM12">
-        <v>35.901198999999998</v>
-      </c>
-      <c r="AN12">
-        <v>0.530559</v>
-      </c>
-      <c r="AO12">
-        <v>14.167933</v>
-      </c>
-      <c r="AP12">
-        <v>35.740251000000001</v>
-      </c>
-      <c r="AQ12">
-        <v>0.51733799999999996</v>
-      </c>
-      <c r="AR12">
-        <v>13.046131000000001</v>
-      </c>
-      <c r="AS12">
-        <v>40.855379999999997</v>
-      </c>
-      <c r="AT12">
-        <v>0.40232200000000001</v>
-      </c>
-      <c r="AU12">
-        <v>24.442439</v>
-      </c>
-      <c r="AV12">
-        <v>74.173766000000001</v>
-      </c>
-      <c r="AW12">
-        <v>0.35594100000000001</v>
-      </c>
-      <c r="AX12">
-        <v>25.168882</v>
-      </c>
-      <c r="AY12">
-        <v>83.015878000000001</v>
-      </c>
-      <c r="AZ12">
-        <v>0.33733299999999999</v>
       </c>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.35">
